--- a/DataDriverFramework2/src/utilities/test1.xlsx
+++ b/DataDriverFramework2/src/utilities/test1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -120,13 +120,7 @@
     <t>Enter first name</t>
   </si>
   <si>
-    <t>sureet.aujla@gmail.com</t>
-  </si>
-  <si>
     <t>Enter last name</t>
-  </si>
-  <si>
-    <t>JJ@ten30</t>
   </si>
   <si>
     <t>Enter user name</t>
@@ -687,7 +681,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +816,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>32</v>
       </c>
@@ -832,9 +826,7 @@
       <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -843,11 +835,9 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
@@ -856,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -869,10 +859,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -882,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="9"/>
     </row>
@@ -895,10 +885,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="9"/>
     </row>
@@ -908,10 +898,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -921,10 +911,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -934,10 +924,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9"/>
     </row>
@@ -947,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9">
         <v>94586</v>
@@ -960,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="9">
         <v>5109998888</v>
@@ -973,10 +963,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -986,10 +976,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="9"/>
     </row>
@@ -1002,8 +992,6 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D16" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
